--- a/data/admin-web.xlsx
+++ b/data/admin-web.xlsx
@@ -4,10 +4,13 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="percobaan" sheetId="1" r:id="rId1"/>
-    <sheet name="projects" sheetId="2" r:id="rId2"/>
-    <sheet name="project_expenses" sheetId="3" r:id="rId3"/>
-    <sheet name="attendance_records" sheetId="4" r:id="rId4"/>
-    <sheet name="payroll_resets" sheetId="5" r:id="rId5"/>
+    <sheet name="UMUM UPDATE" sheetId="2" r:id="rId2"/>
+    <sheet name="Daan Mogot" sheetId="3" r:id="rId3"/>
+    <sheet name="cianjur kmp" sheetId="4" r:id="rId4"/>
+    <sheet name="projects" sheetId="5" r:id="rId5"/>
+    <sheet name="project_expenses" sheetId="6" r:id="rId6"/>
+    <sheet name="attendance_records" sheetId="7" r:id="rId7"/>
+    <sheet name="payroll_resets" sheetId="8" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -502,70 +505,233 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>code</v>
-      </c>
-      <c r="D1" t="str">
-        <v>client_name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>start_date</v>
-      </c>
-      <c r="F1" t="str">
-        <v>status</v>
-      </c>
-      <c r="G1" t="str">
-        <v>created_at</v>
+        <v>PROJECT KMP CIANJUR DS UMUM UPDATE</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>75f87fce-3c50-40ce-a5e6-408d45388fc8</v>
+        <v>NO</v>
       </c>
       <c r="B2" t="str">
-        <v>percobaan</v>
+        <v>NAMA PENGAJUAN</v>
       </c>
       <c r="C2" t="str">
-        <v>test1</v>
+        <v>TANGGAL</v>
       </c>
       <c r="D2" t="str">
-        <v>test1</v>
+        <v>KETERANGAN</v>
+      </c>
+      <c r="E2" t="str">
+        <v>RINCIAN COST</v>
       </c>
       <c r="F2" t="str">
-        <v>aktif</v>
+        <v/>
       </c>
       <c r="G2" t="str">
-        <v>2026-02-19T07:01:13.220Z</v>
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v>COST MATERIAL</v>
+      </c>
+      <c r="J2" t="str">
+        <v>ALAT</v>
+      </c>
+      <c r="K2" t="str">
+        <v>COST UPAH/KASBON</v>
+      </c>
+      <c r="L2" t="str">
+        <v>COST OPS</v>
+      </c>
+      <c r="M2" t="str">
+        <v>PENGELUARAN PER MINGGU</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>QTY</v>
+      </c>
+      <c r="F3" t="str">
+        <v>KET</v>
+      </c>
+      <c r="G3" t="str">
+        <v>INFORMASI PENGGUNAAN</v>
+      </c>
+      <c r="H3" t="str">
+        <v>HARGA</v>
+      </c>
+      <c r="I3" t="str">
+        <v>COST</v>
+      </c>
+      <c r="J3" t="str">
+        <v>COST</v>
+      </c>
+      <c r="K3" t="str">
+        <v>COST</v>
+      </c>
+      <c r="L3" t="str">
+        <v>COST</v>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="str">
+        <v>sesil</v>
+      </c>
+      <c r="C4" t="str">
+        <v>20-Feb-26</v>
+      </c>
+      <c r="D4" t="str">
+        <v>pasir</v>
+      </c>
+      <c r="I4">
+        <v>100000</v>
+      </c>
+      <c r="M4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>TOTAL PENGELUARAN COST FEBRUARI 2026</v>
+      </c>
+      <c r="I5">
+        <v>100000</v>
+      </c>
+      <c r="M5">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PROJECT KMP CIANJUR DS DAAN MOGOT</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>NO</v>
+      </c>
+      <c r="B2" t="str">
+        <v>NAMA PENGAJUAN</v>
+      </c>
+      <c r="C2" t="str">
+        <v>TANGGAL</v>
+      </c>
+      <c r="D2" t="str">
+        <v>KETERANGAN</v>
+      </c>
+      <c r="E2" t="str">
+        <v>RINCIAN COST</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v>COST MATERIAL</v>
+      </c>
+      <c r="J2" t="str">
+        <v>ALAT</v>
+      </c>
+      <c r="K2" t="str">
+        <v>COST UPAH/KASBON</v>
+      </c>
+      <c r="L2" t="str">
+        <v>COST OPS</v>
+      </c>
+      <c r="M2" t="str">
+        <v>PENGELUARAN PER MINGGU</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>QTY</v>
+      </c>
+      <c r="F3" t="str">
+        <v>KET</v>
+      </c>
+      <c r="G3" t="str">
+        <v>INFORMASI PENGGUNAAN</v>
+      </c>
+      <c r="H3" t="str">
+        <v>HARGA</v>
+      </c>
+      <c r="I3" t="str">
+        <v>COST</v>
+      </c>
+      <c r="J3" t="str">
+        <v>COST</v>
+      </c>
+      <c r="K3" t="str">
+        <v>COST</v>
+      </c>
+      <c r="L3" t="str">
+        <v>COST</v>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -579,139 +745,89 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>project_id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>worker_name</v>
-      </c>
-      <c r="D1" t="str">
-        <v>team_type</v>
-      </c>
-      <c r="E1" t="str">
-        <v>specialist_team_name</v>
-      </c>
-      <c r="F1" t="str">
-        <v>status</v>
-      </c>
-      <c r="G1" t="str">
-        <v>daily_wage</v>
-      </c>
-      <c r="H1" t="str">
-        <v>kasbon_amount</v>
-      </c>
-      <c r="I1" t="str">
-        <v>reimburse_type</v>
-      </c>
-      <c r="J1" t="str">
-        <v>reimburse_amount</v>
-      </c>
-      <c r="K1" t="str">
-        <v>attendance_date</v>
-      </c>
-      <c r="L1" t="str">
-        <v>notes</v>
-      </c>
-      <c r="M1" t="str">
-        <v>created_at</v>
+        <v>PROJECT KMP CIANJUR DS CIANJUR KMP</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6ab551ce-6965-4383-9426-8ea77f04f4cb</v>
+        <v>NO</v>
       </c>
       <c r="B2" t="str">
-        <v>75f87fce-3c50-40ce-a5e6-408d45388fc8</v>
+        <v>NAMA PENGAJUAN</v>
       </c>
       <c r="C2" t="str">
-        <v>DERI LASMANA</v>
+        <v>TANGGAL</v>
       </c>
       <c r="D2" t="str">
-        <v>tukang</v>
+        <v>KETERANGAN</v>
+      </c>
+      <c r="E2" t="str">
+        <v>RINCIAN COST</v>
       </c>
       <c r="F2" t="str">
-        <v>hadir</v>
-      </c>
-      <c r="G2">
-        <v>100000</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v>COST MATERIAL</v>
+      </c>
+      <c r="J2" t="str">
+        <v>ALAT</v>
       </c>
       <c r="K2" t="str">
-        <v>2026-02-19</v>
+        <v>COST UPAH/KASBON</v>
+      </c>
+      <c r="L2" t="str">
+        <v>COST OPS</v>
       </c>
       <c r="M2" t="str">
-        <v>2026-02-19T07:56:46.142Z</v>
+        <v>PENGELUARAN PER MINGGU</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>81d87aa9-29c7-412f-a929-2f0d5ded8c9f</v>
+        <v/>
       </c>
       <c r="B3" t="str">
-        <v>75f87fce-3c50-40ce-a5e6-408d45388fc8</v>
+        <v/>
       </c>
       <c r="C3" t="str">
-        <v>DERI LASMANA</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>tukang</v>
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>QTY</v>
       </c>
       <c r="F3" t="str">
-        <v>hadir</v>
-      </c>
-      <c r="G3">
-        <v>100000</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>KET</v>
+      </c>
+      <c r="G3" t="str">
+        <v>INFORMASI PENGGUNAAN</v>
+      </c>
+      <c r="H3" t="str">
+        <v>HARGA</v>
+      </c>
+      <c r="I3" t="str">
+        <v>COST</v>
+      </c>
+      <c r="J3" t="str">
+        <v>COST</v>
       </c>
       <c r="K3" t="str">
-        <v>2026-02-18</v>
+        <v>COST</v>
+      </c>
+      <c r="L3" t="str">
+        <v>COST</v>
       </c>
       <c r="M3" t="str">
-        <v>2026-02-19T07:56:46.142Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>9ec0eafa-b56a-4155-98dc-d453edc3a191</v>
-      </c>
-      <c r="B4" t="str">
-        <v>75f87fce-3c50-40ce-a5e6-408d45388fc8</v>
-      </c>
-      <c r="C4" t="str">
-        <v>DERI LASMANA</v>
-      </c>
-      <c r="D4" t="str">
-        <v>tukang</v>
-      </c>
-      <c r="F4" t="str">
-        <v>hadir</v>
-      </c>
-      <c r="G4">
-        <v>100000</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="str">
-        <v>2026-02-17</v>
-      </c>
-      <c r="M4" t="str">
-        <v>2026-02-19T07:56:46.142Z</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -722,6 +838,201 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>code</v>
+      </c>
+      <c r="D1" t="str">
+        <v>client_name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>start_date</v>
+      </c>
+      <c r="F1" t="str">
+        <v>status</v>
+      </c>
+      <c r="G1" t="str">
+        <v>created_at</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>75f87fce-3c50-40ce-a5e6-408d45388fc8</v>
+      </c>
+      <c r="B2" t="str">
+        <v>percobaan</v>
+      </c>
+      <c r="C2" t="str">
+        <v>test1</v>
+      </c>
+      <c r="D2" t="str">
+        <v>test1</v>
+      </c>
+      <c r="F2" t="str">
+        <v>aktif</v>
+      </c>
+      <c r="G2" t="str">
+        <v>2026-02-19T07:01:13.220Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>409327ed-c13d-4877-be16-0e8f275f51de</v>
+      </c>
+      <c r="B3" t="str">
+        <v>UMUM UPDATE</v>
+      </c>
+      <c r="F3" t="str">
+        <v>aktif</v>
+      </c>
+      <c r="G3" t="str">
+        <v>2026-02-20T06:29:23.407Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>e39ddf0d-1a56-4033-94ee-f3613af64d71</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Daan Mogot</v>
+      </c>
+      <c r="D4" t="str">
+        <v>jakarta</v>
+      </c>
+      <c r="F4" t="str">
+        <v>aktif</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2026-02-20T07:34:27.812Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>950bd935-9ac5-4394-acc7-04faccfee7e3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>cianjur kmp</v>
+      </c>
+      <c r="D5" t="str">
+        <v>agrinas</v>
+      </c>
+      <c r="F5" t="str">
+        <v>aktif</v>
+      </c>
+      <c r="G5" t="str">
+        <v>2026-02-20T07:34:44.522Z</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>project_id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>category</v>
+      </c>
+      <c r="D1" t="str">
+        <v>specialist_type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>requester_name</v>
+      </c>
+      <c r="F1" t="str">
+        <v>description</v>
+      </c>
+      <c r="G1" t="str">
+        <v>recipient_name</v>
+      </c>
+      <c r="H1" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="I1" t="str">
+        <v>unit_label</v>
+      </c>
+      <c r="J1" t="str">
+        <v>usage_info</v>
+      </c>
+      <c r="K1" t="str">
+        <v>unit_price</v>
+      </c>
+      <c r="L1" t="str">
+        <v>amount</v>
+      </c>
+      <c r="M1" t="str">
+        <v>expense_date</v>
+      </c>
+      <c r="N1" t="str">
+        <v>created_at</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>6a5079b8-2db7-4b2c-b447-34d9f8a90a89</v>
+      </c>
+      <c r="B2" t="str">
+        <v>409327ed-c13d-4877-be16-0e8f275f51de</v>
+      </c>
+      <c r="C2" t="str">
+        <v>material</v>
+      </c>
+      <c r="E2" t="str">
+        <v>sesil</v>
+      </c>
+      <c r="F2" t="str">
+        <v>pasir</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>100000</v>
+      </c>
+      <c r="M2" t="str">
+        <v>2026-02-20</v>
+      </c>
+      <c r="N2" t="str">
+        <v>2026-02-20T06:29:54.102Z</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:N2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -732,4 +1043,121 @@
     <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>project_id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>team_type</v>
+      </c>
+      <c r="D1" t="str">
+        <v>specialist_team_name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>worker_name</v>
+      </c>
+      <c r="F1" t="str">
+        <v>paid_until_date</v>
+      </c>
+      <c r="G1" t="str">
+        <v>created_at</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>85306c6f-553b-4509-b3eb-5d6137d63872</v>
+      </c>
+      <c r="B2" t="str">
+        <v>75f87fce-3c50-40ce-a5e6-408d45388fc8</v>
+      </c>
+      <c r="C2" t="str">
+        <v>tukang</v>
+      </c>
+      <c r="E2" t="str">
+        <v>DERI LASMANA</v>
+      </c>
+      <c r="F2" t="str">
+        <v>2026-02-19</v>
+      </c>
+      <c r="G2" t="str">
+        <v>2026-02-20T06:24:04.472Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>212e5e02-b6d6-4639-9952-6d98331ecb86</v>
+      </c>
+      <c r="B3" t="str">
+        <v>75f87fce-3c50-40ce-a5e6-408d45388fc8</v>
+      </c>
+      <c r="C3" t="str">
+        <v>tukang</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Andi</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2026-02-19</v>
+      </c>
+      <c r="G3" t="str">
+        <v>2026-02-20T06:24:08.640Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>4cf5000f-61a8-4c82-a4c8-4891e46b68f8</v>
+      </c>
+      <c r="B4" t="str">
+        <v>75f87fce-3c50-40ce-a5e6-408d45388fc8</v>
+      </c>
+      <c r="C4" t="str">
+        <v>tukang</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Andi</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2026-02-20</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2026-02-20T06:24:10.237Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>d255d261-9e3b-4196-9b7e-17546e879784</v>
+      </c>
+      <c r="B5" t="str">
+        <v>75f87fce-3c50-40ce-a5e6-408d45388fc8</v>
+      </c>
+      <c r="C5" t="str">
+        <v>tukang</v>
+      </c>
+      <c r="E5" t="str">
+        <v>deni</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2026-02-20</v>
+      </c>
+      <c r="G5" t="str">
+        <v>2026-02-20T06:26:55.825Z</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+  </ignoredErrors>
+</worksheet>
 </file>